--- a/biology/Zoologie/Ammobatoides_abdominalis/Ammobatoides_abdominalis.xlsx
+++ b/biology/Zoologie/Ammobatoides_abdominalis/Ammobatoides_abdominalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ammobatoides abdominalis est une espèce d'abeilles de la famille des Apidae. Elle est présente en Europe. C'est une abeille cléptoparasite, la femelle pond ses œufs dans le nid d'autre abeilles. Le genre hôte est Melliturga.
 </t>
